--- a/data/Output/xlsx/results_spring_benchmark.xlsx
+++ b/data/Output/xlsx/results_spring_benchmark.xlsx
@@ -160,7 +160,7 @@
     <t>Li-ion</t>
   </si>
   <si>
-    <t>20-90</t>
+    <t>10-90</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2652747651435409</v>
+        <v>-0.2579727143070747</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.221062304286488</v>
+        <v>0.003042521182064832</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -651,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-2.434141304345581</v>
+        <v>-0.03350153479361438</v>
       </c>
       <c r="T2">
         <v>-0</v>
       </c>
       <c r="U2">
-        <v>2.434141304345581</v>
+        <v>0.03350153479361438</v>
       </c>
       <c r="V2">
         <v>2.434141304347826</v>
@@ -674,7 +674,7 @@
         <v>90.94428373531224</v>
       </c>
       <c r="C3">
-        <v>47.82929347827209</v>
+        <v>59.83249232603193</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2669052609557888</v>
+        <v>-0.2648509509433402</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2224210507965957</v>
+        <v>0.0008559625052919118</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-2.445684782607541</v>
+        <v>-0.009411943996206932</v>
       </c>
       <c r="T3">
         <v>-0</v>
       </c>
       <c r="U3">
-        <v>2.445684782607541</v>
+        <v>0.009411943996206932</v>
       </c>
       <c r="V3">
         <v>2.445684782608696</v>
@@ -745,28 +745,28 @@
         <v>116.1907039918913</v>
       </c>
       <c r="C4">
-        <v>35.60086956523439</v>
+        <v>59.78543260605089</v>
       </c>
       <c r="D4">
-        <v>-0.6685706521792159</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0334285326089608</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4195059052915913</v>
+        <v>0.3360403788040068</v>
       </c>
       <c r="H4">
-        <v>0.07768169474502094</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2848535087890298</v>
+        <v>0.282443578896295</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
@@ -790,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.6685706521792159</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-2.451603260867662</v>
+        <v>-2.430862101635999</v>
       </c>
       <c r="T4">
         <v>-0</v>
       </c>
       <c r="U4">
-        <v>2.451603260867662</v>
+        <v>2.430862101635999</v>
       </c>
       <c r="V4">
         <v>2.451603260869565</v>
@@ -816,19 +816,19 @@
         <v>87.04494195136807</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>47.6311220978709</v>
       </c>
       <c r="D5">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.4785444298630079</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.251898238279558</v>
+        <v>-0.2481134817117368</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.001694927384164942</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-0</v>
+        <v>-0.01947186529358473</v>
       </c>
       <c r="T5">
         <v>-0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.01947186529358473</v>
       </c>
       <c r="V5">
         <v>2.414282608695652</v>
@@ -887,7 +887,7 @@
         <v>94.62347684936049</v>
       </c>
       <c r="C6">
-        <v>67.8544429863008</v>
+        <v>47.53376277140298</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1069662352743968</v>
+        <v>-0.2682931587135574</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1606002746681409</v>
+        <v>0.004242193839826634</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
@@ -935,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-1.697256114609007</v>
+        <v>-0.04483236064745496</v>
       </c>
       <c r="T6">
         <v>-0</v>
       </c>
       <c r="U6">
-        <v>1.697256114609007</v>
+        <v>0.04483236064745496</v>
       </c>
       <c r="V6">
         <v>2.452478260869565</v>
@@ -958,7 +958,7 @@
         <v>107.1891068233885</v>
       </c>
       <c r="C7">
-        <v>59.36816241325575</v>
+        <v>47.3096009681657</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3164454148938832</v>
+        <v>0.2373136944193295</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2850016053271689</v>
+        <v>0.2520300551294382</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-2.552435724880954</v>
+        <v>-2.244834036846957</v>
       </c>
       <c r="T7">
         <v>-0.1064315217391305</v>
       </c>
       <c r="U7">
-        <v>2.658867246620084</v>
+        <v>2.351265558586087</v>
       </c>
       <c r="V7">
         <v>2.857554347826087</v>
@@ -1029,7 +1029,7 @@
         <v>118.5859393159916</v>
       </c>
       <c r="C8">
-        <v>46.60598378885098</v>
+        <v>36.08543078393092</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5646587986684664</v>
+        <v>0.5491831177717449</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4706727448978426</v>
+        <v>0.4642245445242086</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-3.299681486678204</v>
+        <v>-3.2453057283815</v>
       </c>
       <c r="T8">
         <v>-0.6693619565217391</v>
       </c>
       <c r="U8">
-        <v>3.969043443199943</v>
+        <v>3.914667684903239</v>
       </c>
       <c r="V8">
         <v>3.970086956521739</v>
@@ -1100,7 +1100,7 @@
         <v>123.7883475363885</v>
       </c>
       <c r="C9">
-        <v>30.10757635545997</v>
+        <v>19.85890214202342</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5757430648932078</v>
+        <v>0.5635052779034055</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4797934157055074</v>
+        <v>0.4746943377930898</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-1.778156575446872</v>
+        <v>-1.736964669957394</v>
       </c>
       <c r="T9">
         <v>-2.097760869565218</v>
       </c>
       <c r="U9">
-        <v>3.875917445012089</v>
+        <v>3.834725539522611</v>
       </c>
       <c r="V9">
         <v>3.875978260869565</v>
@@ -1171,7 +1171,7 @@
         <v>125.6227413643548</v>
       </c>
       <c r="C10">
-        <v>21.21679347822561</v>
+        <v>11.17407879223645</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5914799306943461</v>
+        <v>0.587841592765826</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4928999422462276</v>
+        <v>0.4913839681093443</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
@@ -1219,13 +1219,13 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-0.2433586956446989</v>
+        <v>-0.2312910228617397</v>
       </c>
       <c r="T10">
         <v>-3.680293478260869</v>
       </c>
       <c r="U10">
-        <v>3.923652173905568</v>
+        <v>3.911584501122609</v>
       </c>
       <c r="V10">
         <v>3.923652173913044</v>
@@ -1242,28 +1242,28 @@
         <v>67.10817183722682</v>
       </c>
       <c r="C11">
-        <v>20.00000000000211</v>
+        <v>10.01762367792775</v>
       </c>
       <c r="D11">
-        <v>-4.224398608698721E-13</v>
+        <v>-0.003524735585550276</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>2.11219930434936E-14</v>
+        <v>0.0001762367792775138</v>
       </c>
       <c r="G11">
-        <v>0.3860930073690044</v>
+        <v>0.3851329437717991</v>
       </c>
       <c r="H11">
-        <v>2.834916677414956E-14</v>
+        <v>0.0002365385613558962</v>
       </c>
       <c r="I11">
-        <v>-0.06709693851291826</v>
+        <v>-0.06795165434044177</v>
       </c>
       <c r="J11">
-        <v>0.2658300573801559</v>
+        <v>0.2649753415526324</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
@@ -1284,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>-0.9998326086972567</v>
+        <v>-1.012568998381611</v>
       </c>
       <c r="R11">
-        <v>4.224398608698721E-13</v>
+        <v>0.003524735585550276</v>
       </c>
       <c r="S11">
         <v>-0</v>
       </c>
       <c r="T11">
-        <v>-3.961217391302744</v>
+        <v>-3.94848100161839</v>
       </c>
       <c r="U11">
-        <v>3.961217391302744</v>
+        <v>3.94848100161839</v>
       </c>
       <c r="V11">
         <v>3.961217391304348</v>
@@ -1313,19 +1313,19 @@
         <v>54.67950281451348</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>4.102820156088884</v>
+        <v>6.041598211095287</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.2051410078044442</v>
+        <v>0.3020799105547644</v>
       </c>
       <c r="G12">
-        <v>0.06273171027078317</v>
+        <v>-0.06452249108046249</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3168315233565241</v>
+        <v>0.3167977756792591</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.608491118076927E-12</v>
+        <v>0.000617190640292975</v>
       </c>
       <c r="P12">
-        <v>4.102820156087275</v>
+        <v>6.040981020454995</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>-0</v>
       </c>
       <c r="T12">
-        <v>-5.794338043476652</v>
+        <v>-5.793720852837968</v>
       </c>
       <c r="U12">
-        <v>5.794338043476652</v>
+        <v>5.793720852837968</v>
       </c>
       <c r="V12">
         <v>6.529804347826087</v>
@@ -1384,19 +1384,19 @@
         <v>48.16905897653096</v>
       </c>
       <c r="C13">
-        <v>40.51410078044442</v>
+        <v>40.20799105547643</v>
       </c>
       <c r="D13">
-        <v>9.897179843911116</v>
+        <v>9.899163185782935</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.4948589921955558</v>
+        <v>0.4949581592891468</v>
       </c>
       <c r="G13">
-        <v>-0.2202853241152022</v>
+        <v>-0.2206785896288943</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.276974706998392</v>
+        <v>0.2767425214485762</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3361500000062509</v>
+        <v>0.3409702218405384</v>
       </c>
       <c r="P13">
-        <v>9.561029843904866</v>
+        <v>9.558192963942396</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>-0</v>
       </c>
       <c r="T13">
-        <v>-5.750054347819836</v>
+        <v>-5.745234125985549</v>
       </c>
       <c r="U13">
-        <v>5.750054347819836</v>
+        <v>5.745234125985549</v>
       </c>
       <c r="V13">
         <v>5.750054347826087</v>
@@ -1455,7 +1455,7 @@
         <v>76.92059017480044</v>
       </c>
       <c r="C14">
-        <v>90</v>
+        <v>89.70380698439111</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5596022479091958</v>
+        <v>0.5497620407923551</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4663352324962908</v>
+        <v>0.4622351461976071</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-0.1566224893072441</v>
+        <v>-0.1033196442645021</v>
       </c>
       <c r="T14">
         <v>-5.905931521739131</v>
       </c>
       <c r="U14">
-        <v>6.062554011046375</v>
+        <v>6.009251166003633</v>
       </c>
       <c r="V14">
         <v>6.062554347826087</v>
@@ -1526,7 +1526,7 @@
         <v>77.74323370932761</v>
       </c>
       <c r="C15">
-        <v>89.21688755346379</v>
+        <v>89.18720876306861</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5453704857698534</v>
+        <v>0.5394500819710315</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4544807520188957</v>
+        <v>0.4520139171027199</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
@@ -1574,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-0.5558953500351329</v>
+        <v>-0.5241648083728325</v>
       </c>
       <c r="T15">
         <v>-5.290025000000001</v>
       </c>
       <c r="U15">
-        <v>5.845920350035134</v>
+        <v>5.814189808372833</v>
       </c>
       <c r="V15">
         <v>5.845989130434782</v>
@@ -1597,7 +1597,7 @@
         <v>117.7594222185925</v>
       </c>
       <c r="C16">
-        <v>86.43741080328812</v>
+        <v>86.56638472120444</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.7163976370243563</v>
+        <v>0.7141700105059092</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5969980308545709</v>
+        <v>0.5960698531385512</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -1645,13 +1645,13 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-0.651727173905055</v>
+        <v>-0.6438451913126411</v>
       </c>
       <c r="T16">
         <v>-4.417914130434784</v>
       </c>
       <c r="U16">
-        <v>5.069641304339839</v>
+        <v>5.061759321747425</v>
       </c>
       <c r="V16">
         <v>5.069641304347826</v>
@@ -1668,28 +1668,28 @@
         <v>113.6104330778589</v>
       </c>
       <c r="C17">
-        <v>83.17877493376284</v>
+        <v>83.34715876464122</v>
       </c>
       <c r="D17">
-        <v>-1.677960248000202</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.08389801240001012</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.72787283056623</v>
+        <v>0.5328804469681129</v>
       </c>
       <c r="H17">
-        <v>0.1906337904627345</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4476992000868566</v>
+        <v>0.4458831196137805</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>
@@ -1713,16 +1713,16 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>1.677960248000202</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>-0.7453739130381054</v>
+        <v>-0.7293887572396809</v>
       </c>
       <c r="T17">
         <v>-3.195278260869565</v>
       </c>
       <c r="U17">
-        <v>3.940652173907671</v>
+        <v>3.924667018109246</v>
       </c>
       <c r="V17">
         <v>3.940652173913044</v>
@@ -1739,28 +1739,28 @@
         <v>139.023119547856</v>
       </c>
       <c r="C18">
-        <v>71.06210412857131</v>
+        <v>79.70021497844282</v>
       </c>
       <c r="D18">
-        <v>-4.036093167431639</v>
+        <v>-4.111078710701268</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.201804658371582</v>
+        <v>0.2055539355350634</v>
       </c>
       <c r="G18">
-        <v>1.183506493515824</v>
+        <v>1.190399469567764</v>
       </c>
       <c r="H18">
-        <v>0.5611102629221334</v>
+        <v>0.5715349870684679</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5186635254948174</v>
+        <v>0.5171919637888198</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
@@ -1784,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>4.036093167431639</v>
+        <v>4.111078710701268</v>
       </c>
       <c r="S18">
-        <v>-2.073511956521195</v>
+        <v>-2.062926942238798</v>
       </c>
       <c r="T18">
         <v>-1.657259782608696</v>
       </c>
       <c r="U18">
-        <v>3.730771739129891</v>
+        <v>3.720186724847494</v>
       </c>
       <c r="V18">
         <v>3.730771739130435</v>
@@ -1810,19 +1810,19 @@
         <v>65.23937164610012</v>
       </c>
       <c r="C19">
-        <v>40.51407850880713</v>
+        <v>48.83018671374249</v>
       </c>
       <c r="D19">
-        <v>9.897179988240559</v>
+        <v>8.233962657251503</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.4948589994120279</v>
+        <v>0.4116981328625752</v>
       </c>
       <c r="G19">
-        <v>-1.079223178175845</v>
+        <v>-0.9530184849326676</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01975377261036186</v>
+        <v>0.01641709672838022</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>7.241096611210196E-12</v>
+        <v>0.05114512599162213</v>
       </c>
       <c r="P19">
-        <v>9.897179988233319</v>
+        <v>8.182817531259881</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>-0</v>
       </c>
       <c r="T19">
-        <v>-0.3027891304275415</v>
+        <v>-0.2516440044431604</v>
       </c>
       <c r="U19">
-        <v>0.3027891304275415</v>
+        <v>0.2516440044431604</v>
       </c>
       <c r="V19">
         <v>4.493826086956522</v>
@@ -1881,7 +1881,7 @@
         <v>122.1127597553482</v>
       </c>
       <c r="C20">
-        <v>89.99997845000992</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5227614991559767</v>
+        <v>0.5166654234665411</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5163053411293634</v>
+        <v>0.5137653095920987</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-4.195754212000756</v>
+        <v>-4.174953506633407</v>
       </c>
       <c r="T20">
         <v>-0.03234891304347826</v>
       </c>
       <c r="U20">
-        <v>4.228103125044234</v>
+        <v>4.207302419676885</v>
       </c>
       <c r="V20">
         <v>4.888728260869565</v>
@@ -1952,7 +1952,7 @@
         <v>86.56083745916285</v>
       </c>
       <c r="C21">
-        <v>69.02120739000614</v>
+        <v>69.12523246683297</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.2000532867777087</v>
+        <v>0.2000049731724132</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1101559203759201</v>
+        <v>0.2768468620218043</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
@@ -2000,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-1.272583810523885</v>
+        <v>-3.19829232419815</v>
       </c>
       <c r="T21">
         <v>-0</v>
       </c>
       <c r="U21">
-        <v>1.272583810523885</v>
+        <v>3.19829232419815</v>
       </c>
       <c r="V21">
         <v>4.471108695652174</v>
@@ -2023,7 +2023,7 @@
         <v>89.71526517400227</v>
       </c>
       <c r="C22">
-        <v>62.65828833738672</v>
+        <v>53.13377084584224</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.1243148503387926</v>
+        <v>0.3528288070661396</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2353923431590195</v>
+        <v>0.330606491795414</v>
       </c>
       <c r="K22" t="s">
         <v>47</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>-2.623771358224014</v>
+        <v>-3.685063976060312</v>
       </c>
       <c r="T22">
         <v>-0</v>
       </c>
       <c r="U22">
-        <v>2.623771358224014</v>
+        <v>3.685063976060312</v>
       </c>
       <c r="V22">
         <v>4.092826086956522</v>
@@ -2094,7 +2094,7 @@
         <v>90.19278809868813</v>
       </c>
       <c r="C23">
-        <v>49.53943154626666</v>
+        <v>34.70845096554067</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.3352125721367763</v>
+        <v>0.1450512067423982</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2906967876590662</v>
+        <v>0.2114628854114087</v>
       </c>
       <c r="K23" t="s">
         <v>47</v>
@@ -2142,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>-3.223060222298356</v>
+        <v>-2.344565345735048</v>
       </c>
       <c r="T23">
         <v>-0</v>
       </c>
       <c r="U23">
-        <v>3.223060222298356</v>
+        <v>2.344565345735048</v>
       </c>
       <c r="V23">
         <v>3.348934782608695</v>
@@ -2165,28 +2165,28 @@
         <v>112.6211585567256</v>
       </c>
       <c r="C24">
-        <v>33.42413043477488</v>
+        <v>22.98562423686543</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>-0.009254447049786396</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.0004627223524893198</v>
       </c>
       <c r="G24">
-        <v>0.3628418693228716</v>
+        <v>0.3376778876546739</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001042246548548815</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.302368224436045</v>
+        <v>0.2914489626790673</v>
       </c>
       <c r="K24" t="s">
         <v>47</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>0.009254447049786396</v>
       </c>
       <c r="S24">
-        <v>-2.684826086953692</v>
+        <v>-2.587870400323299</v>
       </c>
       <c r="T24">
         <v>-0</v>
       </c>
       <c r="U24">
-        <v>2.684826086953692</v>
+        <v>2.587870400323299</v>
       </c>
       <c r="V24">
         <v>2.684826086956522</v>
@@ -2236,7 +2236,7 @@
         <v>100.7519619575931</v>
       </c>
       <c r="C25">
-        <v>20.00000000000642</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>0</v>
